--- a/Project File/um2_DE_08_테이블설계서_v0.7.xlsx
+++ b/Project File/um2_DE_08_테이블설계서_v0.7.xlsx
@@ -821,11 +821,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -930,40 +930,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="맑은 고딕"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="맑은 고딕"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="맑은 고딕"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="맑은 고딕"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="8"/>
       <name val="맑은 고딕"/>
       <charset val="134"/>
     </font>
@@ -980,6 +954,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="맑은 고딕"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="맑은 고딕"/>
@@ -988,7 +969,82 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color indexed="9"/>
+      <name val="맑은 고딕"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="맑은 고딕"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="맑은 고딕"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="맑은 고딕"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="맑은 고딕"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="52"/>
+      <name val="맑은 고딕"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="맑은 고딕"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="맑은 고딕"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="맑은 고딕"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="맑은 고딕"/>
       <charset val="134"/>
     </font>
@@ -1001,66 +1057,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="맑은 고딕"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="맑은 고딕"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="맑은 고딕"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="맑은 고딕"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="맑은 고딕"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="맑은 고딕"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="맑은 고딕"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1107,19 +1107,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="62"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,13 +1131,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="20"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,7 +1149,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,31 +1167,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,31 +1221,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,21 +1343,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -1373,13 +1358,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
       </top>
       <bottom style="double">
-        <color indexed="62"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1440,152 +1429,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1622,7 +1622,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1664,7 +1664,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2493,7 +2493,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.66666666666667" defaultRowHeight="13.5" customHeight="1"/>
@@ -2849,7 +2849,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -2993,7 +2993,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -4086,7 +4086,7 @@
   <dimension ref="B2:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
